--- a/docs/host inventory.xlsx
+++ b/docs/host inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stuar\Documents\GitHub\IT-C-544---System-Administration-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c99ma\Documents\School Fall 25\sys admin\group proj\IT-C-344---System-Administration-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3243E48-D61B-4029-9CE1-DAE76092081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D884C5B-F9F4-4B1F-A302-61798CDD777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hosts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Hostname</t>
   </si>
@@ -42,30 +42,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Linux0</t>
-  </si>
-  <si>
     <t>10.0.10.1</t>
   </si>
   <si>
     <t>Offline</t>
   </si>
   <si>
-    <t>LInux1</t>
-  </si>
-  <si>
-    <t>Linux2</t>
-  </si>
-  <si>
-    <t>Linux3</t>
-  </si>
-  <si>
-    <t>Win1</t>
-  </si>
-  <si>
-    <t>Win2</t>
-  </si>
-  <si>
     <t>10.0.10.2</t>
   </si>
   <si>
@@ -78,9 +60,6 @@
     <t>10.0.10.5</t>
   </si>
   <si>
-    <t>10.0.10.6</t>
-  </si>
-  <si>
     <t>Router, Firewall, VPN, DHCP</t>
   </si>
   <si>
@@ -96,67 +75,94 @@
     <t>Database, Active Directory</t>
   </si>
   <si>
-    <t>rachel-nguyen</t>
-  </si>
-  <si>
-    <t>karen-taylor</t>
-  </si>
-  <si>
-    <t>jessica-rodriguez</t>
-  </si>
-  <si>
-    <t>ryan-lee</t>
-  </si>
-  <si>
-    <t>ben-anderson</t>
-  </si>
-  <si>
-    <t>emily-brown-remote</t>
-  </si>
-  <si>
-    <t>albert-tay-hybrid</t>
-  </si>
-  <si>
-    <t>alex-patel-hybrid</t>
-  </si>
-  <si>
-    <t>eric-nguyen-hybrid</t>
-  </si>
-  <si>
-    <t>olivia-davis-remote</t>
-  </si>
-  <si>
     <t>10.0.20.1</t>
   </si>
   <si>
-    <t>10.0.20.2</t>
-  </si>
-  <si>
-    <t>10.0.20.3</t>
-  </si>
-  <si>
-    <t>10.0.20.4</t>
-  </si>
-  <si>
-    <t>10.0.30.1</t>
-  </si>
-  <si>
-    <t>10.0.30.2</t>
-  </si>
-  <si>
-    <t>10.0.30.3</t>
-  </si>
-  <si>
-    <t>10.0.30.4</t>
-  </si>
-  <si>
-    <t>10.0.30.5</t>
-  </si>
-  <si>
-    <t>10.0.30.6</t>
-  </si>
-  <si>
     <t>Backup server</t>
+  </si>
+  <si>
+    <t>alpha-0</t>
+  </si>
+  <si>
+    <t>alpha-1</t>
+  </si>
+  <si>
+    <t>alpha-2</t>
+  </si>
+  <si>
+    <t>alpha-3</t>
+  </si>
+  <si>
+    <t>alpha-4</t>
+  </si>
+  <si>
+    <t>alpha-5</t>
+  </si>
+  <si>
+    <t>beta-1</t>
+  </si>
+  <si>
+    <t>beta-2</t>
+  </si>
+  <si>
+    <t>beta-3</t>
+  </si>
+  <si>
+    <t>gamma-0</t>
+  </si>
+  <si>
+    <t>gamma-1</t>
+  </si>
+  <si>
+    <t>delta-0</t>
+  </si>
+  <si>
+    <t>delta-1</t>
+  </si>
+  <si>
+    <t>delta-2</t>
+  </si>
+  <si>
+    <t>delta-3</t>
+  </si>
+  <si>
+    <t>delta-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-0 </t>
+  </si>
+  <si>
+    <t>Remote: Emily Brown</t>
+  </si>
+  <si>
+    <t>Remote: Albert Tay</t>
+  </si>
+  <si>
+    <t>Remote: Alex Patel</t>
+  </si>
+  <si>
+    <t>Remote: Olivia Davis</t>
+  </si>
+  <si>
+    <t>Hybrid Workstation</t>
+  </si>
+  <si>
+    <t>Rachel Nguyen</t>
+  </si>
+  <si>
+    <t>Karen Taylor</t>
+  </si>
+  <si>
+    <t>Jessica Rodrigues</t>
+  </si>
+  <si>
+    <t>Ryan Lee</t>
+  </si>
+  <si>
+    <t>Ben Anderson</t>
+  </si>
+  <si>
+    <t>DHCP</t>
   </si>
 </sst>
 </file>
@@ -212,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F6B873-78E6-4381-917B-64BD8B422109}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{97F6B873-78E6-4381-917B-64BD8B422109}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F6B873-78E6-4381-917B-64BD8B422109}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{97F6B873-78E6-4381-917B-64BD8B422109}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B747699-DFA0-41DD-94ED-8E5904D544DC}" name="Hostname"/>
     <tableColumn id="2" xr3:uid="{0650AFEC-D21C-41F7-848E-AEBAA31D6F14}" name="IP"/>
@@ -488,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,246 +523,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>202</v>
       </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>202</v>
       </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>202</v>
       </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>202</v>
       </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>202</v>
       </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>202</v>
       </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
